--- a/YSteam開発資料まとめ/試験項目書/試験項目書_ranking.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_ranking.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5CE2C-D395-49EC-B22A-25B96ABD51E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -109,118 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①Form.ユーザIDがNullであること
-②Form.パスワードがNullであること
-③loginビューが戻されること</t>
-    <rPh sb="54" eb="55">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン①
-正常</t>
-    <rPh sb="6" eb="8">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①initメソッドを実行</t>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①listビューが戻されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン②
-ユーザID未入力</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在するユーザIDとパスワードを設定
-②loginメソッドを実行</t>
-    <rPh sb="4" eb="6">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザIDに空欄を設定
-②loginメソッドを実行</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン③
-パスワード未入力</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①Form.ユーザIDとForm.パスワードが入力した値であること
-②エラーメッセージが設定されていること
-③loginビューが戻されること</t>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン④
-レコードなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①パスワードに空欄を設定
-②loginメソッドを実行</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -228,40 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン⑤
-パスワード不一致</t>
-    <rPh sb="11" eb="14">
-      <t>フイッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在しないユーザIDを設定
-②loginメソッドを実行</t>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在するユーザIDを設定
-②DBと異なるパスワードを設定
-③loginメソッドを実行</t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -301,244 +146,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①ブラウザでlocalhost:8080にアクセスする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ログイン画面が表示されること
-②ユーザIDとパスワードが空欄であること
-③ログイン情報保持のチェックボックスが空欄であること</t>
+    <t>①リザルト画面でクリックする</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>クウラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①登録済のユーザIDとパスワードを入力
-②ログインボタンをクリック</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ一覧画面に遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ランキング画面が表示されること
+</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザIDに空欄を設定
-②ログインボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは「～」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力はJavaScriptで処理される。
-エラーメッセージは「～」</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①メッセージ欄にエラーメッセージが表示されること
-②画面遷移しないこと</t>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①パスワードに空欄を設定
-②ログインボタンをクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在しないユーザIDを設定
-②ログインボタンをクリック</t>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ポップアップ画面でエラーメッセージが表示されること
-②ユーザIDのテキストボックスの背景色が赤になること
-③画面遷移しないこと</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ポップアップ画面でエラーメッセージが表示されること
-②パスワードのテキストボックスの背景色が赤になること
-③画面遷移しないこと</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン情報保持</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①登録済のユーザIDとパスワードを入力
-②ログイン情報保持のチェックボックスにチェックする
-③ログインボタンをクリック</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ一覧画面に遷移すること
-②ブラウザでlocalhost:8080にアクセスするとユーザIDとパスワードに値が設定されていること</t>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録リンク</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ登録リンクをクリック</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ登録画面に遷移すること</t>
-    <rPh sb="4" eb="8">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン④
-ログインエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①rankingメソッドを実行</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ユーザリストが取れること
+③Rankingビューが戻されること</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,85 +499,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1230,195 +878,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
+      <c r="B1" s="22"/>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
@@ -1427,35 +1035,35 @@
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
+    <row r="17" ht="100.2" customHeight="1"/>
+    <row r="18" ht="100.2" customHeight="1"/>
+    <row r="19" ht="100.2" customHeight="1"/>
+    <row r="20" ht="100.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1464,7 +1072,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1474,234 +1082,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
+      <c r="B1" s="22"/>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
+    <row r="17" ht="100.2" customHeight="1"/>
+    <row r="18" ht="100.2" customHeight="1"/>
+    <row r="19" ht="100.2" customHeight="1"/>
+    <row r="20" ht="100.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1710,7 +1276,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>

--- a/YSteam開発資料まとめ/試験項目書/試験項目書_ranking.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_ranking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5CE2C-D395-49EC-B22A-25B96ABD51E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C36851-0A21-47CB-A26D-291F923EE101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -105,9 +105,6 @@
       <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -186,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,7 +574,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -881,14 +878,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
@@ -899,37 +896,37 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -949,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -957,15 +954,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -975,7 +972,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -985,7 +982,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -995,7 +992,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1005,7 +1002,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1015,7 +1012,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1025,7 +1022,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -1037,7 +1034,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1047,7 +1044,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1057,13 +1054,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="17" ht="100.2" customHeight="1"/>
-    <row r="18" ht="100.2" customHeight="1"/>
-    <row r="19" ht="100.2" customHeight="1"/>
-    <row r="20" ht="100.2" customHeight="1"/>
+    <row r="14" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1085,14 +1082,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
@@ -1103,37 +1100,37 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1161,17 +1158,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1181,7 +1176,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1191,7 +1186,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1201,7 +1196,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1211,7 +1206,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1221,7 +1216,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1231,7 +1226,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -1241,7 +1236,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1251,7 +1246,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1261,13 +1256,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="17" ht="100.2" customHeight="1"/>
-    <row r="18" ht="100.2" customHeight="1"/>
-    <row r="19" ht="100.2" customHeight="1"/>
-    <row r="20" ht="100.2" customHeight="1"/>
+    <row r="14" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
